--- a/source/differences.xlsx
+++ b/source/differences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="540">
   <si>
     <t xml:space="preserve">THAI Dhammayuttika</t>
   </si>
@@ -30,6 +30,9 @@
     <t xml:space="preserve">Ñāṇatusita</t>
   </si>
   <si>
+    <t xml:space="preserve">Ñāṇatusita old (ARDMK pdf)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chaṭṭha Saṅgāyana</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidānanuddeso niṭṭhito</t>
   </si>
   <si>
     <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
@@ -166,6 +172,9 @@
     <t xml:space="preserve">cattāro pārājikā niṭṭhitā </t>
   </si>
   <si>
+    <t xml:space="preserve">pārājikuddeso niṭṭhito</t>
+  </si>
+  <si>
     <t xml:space="preserve">pārājikaṃ niṭṭhitaṃ</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
     <t xml:space="preserve">terasa saṅghā disesā niṭṭhitā</t>
   </si>
   <si>
+    <t xml:space="preserve">saṅghādisesuddeso niṭṭhito</t>
+  </si>
+  <si>
     <t xml:space="preserve">saṅghādiseso niṭṭhito</t>
   </si>
   <si>
@@ -412,6 +424,9 @@
     <t xml:space="preserve">bhikkhusammutiyā</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">NP 3</t>
   </si>
   <si>
@@ -727,9 +742,6 @@
     <t xml:space="preserve">nissaggiyā pācittiyā dhammā niṭṭhitā</t>
   </si>
   <si>
-    <t xml:space="preserve">nissaggiyā pācittiyā dhammā niṭṭhitā </t>
-  </si>
-  <si>
     <t xml:space="preserve">tiṃsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
   </si>
   <si>
@@ -817,6 +829,9 @@
     <t xml:space="preserve">vā sahasā abhinisīdeyya</t>
   </si>
   <si>
+    <t xml:space="preserve">vā abhinisīdeyya </t>
+  </si>
+  <si>
     <t xml:space="preserve">PC 19</t>
   </si>
   <si>
@@ -1187,6 +1202,12 @@
   </si>
   <si>
     <t xml:space="preserve">kiṃ panimehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sikkhāpadavivaṇṇanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sikkhāpadavivaṇṇake</t>
   </si>
   <si>
     <t xml:space="preserve">PC 73</t>
@@ -1615,12 +1636,6 @@
   </si>
   <si>
     <t xml:space="preserve">añña bhāgiyañceva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sikkhāpadavivaṇṇanake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sikkhāpadavivaṇṇake</t>
   </si>
   <si>
     <t xml:space="preserve">uddissamānena</t>
@@ -1709,7 +1724,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1735,6 +1750,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1756,118 +1775,122 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ202"/>
+  <dimension ref="A1:BM203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="27.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="65" style="3" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="27.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="27.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="66" style="3" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="128.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1925,642 +1948,664 @@
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
-      <c r="AMJ6" s="2"/>
+      <c r="BM6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>80</v>
+      <c r="E28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2619,20 +2664,19 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
-      <c r="AMJ53" s="1"/>
-    </row>
-    <row r="54" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM53" s="1"/>
+    </row>
+    <row r="54" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="E54" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="F54" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2691,20 +2735,19 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
-      <c r="AMJ54" s="1"/>
-    </row>
-    <row r="55" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM54" s="1"/>
+    </row>
+    <row r="55" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="E55" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="F55" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2763,23 +2806,22 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
-      <c r="AMJ55" s="1"/>
-    </row>
-    <row r="56" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM55" s="1"/>
+    </row>
+    <row r="56" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2838,22 +2880,22 @@
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
-      <c r="AMJ56" s="1"/>
-    </row>
-    <row r="57" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM56" s="1"/>
+    </row>
+    <row r="57" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2912,20 +2954,20 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
-      <c r="AMJ57" s="1"/>
-    </row>
-    <row r="58" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM57" s="1"/>
+    </row>
+    <row r="58" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F58" s="1"/>
+      <c r="C58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2984,20 +3026,19 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
-      <c r="AMJ58" s="1"/>
-    </row>
-    <row r="59" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM58" s="1"/>
+    </row>
+    <row r="59" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="E59" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="F59" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3056,25 +3097,24 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
-      <c r="AMJ59" s="1"/>
-    </row>
-    <row r="60" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM59" s="1"/>
+    </row>
+    <row r="60" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3133,23 +3173,22 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-      <c r="AMJ60" s="1"/>
+      <c r="BM60" s="1"/>
     </row>
     <row r="61" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3208,25 +3247,24 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
-      <c r="AMJ61" s="1"/>
+      <c r="BM61" s="1"/>
     </row>
     <row r="62" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3285,25 +3323,24 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-      <c r="AMJ62" s="1"/>
+      <c r="BM62" s="1"/>
     </row>
     <row r="63" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3362,23 +3399,22 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
-      <c r="AMJ63" s="1"/>
+      <c r="BM63" s="1"/>
     </row>
     <row r="64" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3436,25 +3472,24 @@
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
-      <c r="AMJ64" s="1"/>
+      <c r="BM64" s="1"/>
     </row>
     <row r="65" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3513,47 +3548,46 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-      <c r="AMJ65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="68" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3612,22 +3646,21 @@
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
-      <c r="AMJ68" s="1"/>
+      <c r="BM68" s="1"/>
     </row>
     <row r="69" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F69" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3686,25 +3719,25 @@
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
-      <c r="AMJ69" s="1"/>
-    </row>
-    <row r="70" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM69" s="1"/>
+    </row>
+    <row r="70" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>192</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3763,60 +3796,60 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
-      <c r="AMJ70" s="1"/>
+      <c r="BM70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>204</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F74" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3875,57 +3908,56 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-      <c r="AMJ74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3984,23 +4016,23 @@
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
-      <c r="AMJ78" s="1"/>
-    </row>
-    <row r="79" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM78" s="1"/>
+    </row>
+    <row r="79" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4059,23 +4091,22 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-      <c r="AMJ79" s="1"/>
-    </row>
-    <row r="80" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM79" s="1"/>
+    </row>
+    <row r="80" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4134,22 +4165,22 @@
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
-      <c r="AMJ80" s="1"/>
-    </row>
-    <row r="81" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM80" s="1"/>
+    </row>
+    <row r="81" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4208,19 +4239,19 @@
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
-      <c r="AMJ81" s="1"/>
-    </row>
-    <row r="82" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM81" s="1"/>
+    </row>
+    <row r="82" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="5"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -4279,25 +4310,24 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-      <c r="AMJ82" s="1"/>
-    </row>
-    <row r="83" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM82" s="1"/>
+    </row>
+    <row r="83" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4356,37 +4386,37 @@
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
-      <c r="AMJ83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4445,1645 +4475,1719 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
-      <c r="AMJ85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BM85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="4"/>
-      <c r="F87" s="1" t="s">
-        <v>122</v>
+        <v>236</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="G87" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="F90" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>261</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>267</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="4"/>
-      <c r="F103" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="4"/>
+      <c r="G103" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D109" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="B110" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>298</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>122</v>
+        <v>323</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>329</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>332</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>342</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>346</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D132" s="5"/>
       <c r="E132" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>351</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>354</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>357</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>356</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>363</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>361</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>376</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>379</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>384</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>389</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>387</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>393</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>396</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="B153" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>400</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>407</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>409</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>411</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>413</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>417</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>413</v>
+        <v>183</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>420</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>423</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>427</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>430</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>433</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>435</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>438</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>440</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>443</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>444</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>449</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>446</v>
+        <v>15</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>451</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>14</v>
+        <v>455</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>452</v>
+        <v>15</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>453</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>456</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>460</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>463</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>465</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>467</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>470</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>474</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>14</v>
+        <v>476</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>472</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>477</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>481</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>490</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>499</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>498</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="1"/>
       <c r="E193" s="1" t="s">
-        <v>498</v>
+        <v>15</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>507</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>507</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>508</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="B198" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>515</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>514</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>518</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>390</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>523</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>518</v>
+        <v>397</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6212,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.67"/>
@@ -6119,63 +6223,63 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="3" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>530</v>
+        <v>393</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H8" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H9" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6196,11 +6300,11 @@
   </sheetPr>
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="27.79"/>
@@ -6208,978 +6312,978 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="91.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>534</v>
+        <v>538</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/source/differences.xlsx
+++ b/source/differences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="535">
   <si>
     <t xml:space="preserve">THAI Dhammayuttika</t>
   </si>
@@ -1586,16 +1586,10 @@
     <t xml:space="preserve">kammapattā</t>
   </si>
   <si>
-    <t xml:space="preserve">āivikatā</t>
-  </si>
-  <si>
     <t xml:space="preserve">bhikkhusaṅgho</t>
   </si>
   <si>
     <t xml:space="preserve">bhikkhusaṃgho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saparikka manaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">nisajjaṃ 
@@ -1604,15 +1598,6 @@
   <si>
     <t xml:space="preserve">nisajjaṃ 
  bhikku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brahma cariyā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">añña bhāgiyañceva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uddissamānena</t>
   </si>
   <si>
     <t xml:space="preserve">kiñci desaṃ</t>
@@ -1765,7 +1750,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -6423,11 +6408,11 @@
   </sheetPr>
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.67"/>
@@ -6448,36 +6433,28 @@
       <c r="C2" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>523</v>
-      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>526</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="3" t="s">
-        <v>527</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
@@ -6488,14 +6465,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="3" t="s">
-        <v>528</v>
-      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6519,7 +6492,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="27.79"/>
@@ -6761,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,7 +6745,7 @@
         <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6780,10 +6753,10 @@
         <v>79</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,7 +7677,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -7825,7 +7798,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>47</v>
@@ -7968,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,7 +7952,7 @@
         <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,7 +8100,7 @@
         <v>106</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>107</v>
@@ -8178,7 +8151,7 @@
         <v>119</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +8176,7 @@
         <v>125</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>125</v>
@@ -9156,7 +9129,7 @@
         <v>173</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -9565,7 +9538,7 @@
         <v>194</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10244,7 +10217,7 @@
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
       <c r="G87" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,7 +10288,7 @@
         <v>242</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10391,7 +10364,7 @@
         <v>259</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,7 +10440,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
       <c r="G103" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,7 +10571,7 @@
         <v>295</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10706,7 +10679,7 @@
         <v>314</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10815,7 +10788,7 @@
         <v>333</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/source/differences.xlsx
+++ b/source/differences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="comparison" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="668">
   <si>
     <t xml:space="preserve">THAI Dhammayuttika</t>
   </si>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">NI</t>
   </si>
   <si>
-    <t xml:space="preserve">pāṭimokkhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pātimokkhaṃ</t>
+    <t xml:space="preserve">pāṭimokkhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pātimokkhaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">paṇṇaraso</t>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">pannaraso</t>
   </si>
   <si>
-    <t xml:space="preserve">anussāvitaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anusāvitaṃ</t>
+    <t xml:space="preserve">anussāvitaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anusāvitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">anussāviyamāne</t>
@@ -70,19 +70,19 @@
     <t xml:space="preserve">(does not have)</t>
   </si>
   <si>
-    <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmīti</t>
+    <t xml:space="preserve">uddiṭṭhaṁ kho āyasmanto nidānaṁ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṁ dhārayāmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddiṭṭhaṁ kho āyasmanto nidānaṁ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṁ dhārayāmīti</t>
   </si>
   <si>
     <t xml:space="preserve">nidānuddeso niṭṭhito</t>
   </si>
   <si>
-    <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
+    <t xml:space="preserve">nidānaṁ niṭṭhitaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidānaṁ niṭṭhitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">nidānuddeso paṭhamo</t>
@@ -109,16 +109,16 @@
     <t xml:space="preserve">matante</t>
   </si>
   <si>
-    <t xml:space="preserve">mataṃ te</t>
+    <t xml:space="preserve">mataṁ te</t>
   </si>
   <si>
     <t xml:space="preserve">PA 4</t>
   </si>
   <si>
-    <t xml:space="preserve">attūpanāyikaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attupanāyikaṃ</t>
+    <t xml:space="preserve">attūpanāyikaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attupanāyikaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PA 4
@@ -143,10 +143,10 @@
     <t xml:space="preserve">āpannovisuddhāpekkho</t>
   </si>
   <si>
-    <t xml:space="preserve">ajānamevaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajānamevāhaṃ</t>
+    <t xml:space="preserve">ajānamevaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajānamevāhaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PA onward</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">cattāro pārājikā niṭṭhitā </t>
   </si>
   <si>
-    <t xml:space="preserve">pārājikaṃ niṭṭhitaṃ</t>
+    <t xml:space="preserve">pārājikaṁ niṭṭhitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">pārājikuddeso dutiyo </t>
@@ -185,16 +185,16 @@
     <t xml:space="preserve">SA 2</t>
   </si>
   <si>
-    <t xml:space="preserve">hatthagāhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatthaggāhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veṇigāhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">veṇiggāhaṃ</t>
+    <t xml:space="preserve">hatthagāhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaggāhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṇigāhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṇiggāhaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">SA 3</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">methunūpasañhitāhi</t>
   </si>
   <si>
-    <t xml:space="preserve">methunūpasaṃhitāhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methunupasaṃhitāhi</t>
+    <t xml:space="preserve">methunūpasaṁhitāhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methunupasaṁhitāhi</t>
   </si>
   <si>
     <t xml:space="preserve">SA 4</t>
@@ -215,22 +215,42 @@
     <t xml:space="preserve">methunūpasañhitena</t>
   </si>
   <si>
-    <t xml:space="preserve">methunūpasaṃhitena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methunupasaṃhitena</t>
+    <t xml:space="preserve">methunūpasaṁhitena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methunupasaṁhitena</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">methunūpasaṁh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">itena
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SA 5</t>
   </si>
   <si>
-    <t xml:space="preserve">itthīmatiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itthimatiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taṃkhaṇikāyapi</t>
+    <t xml:space="preserve">itthīmatiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itthimatiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taṁkhaṇikāyapi</t>
   </si>
   <si>
     <t xml:space="preserve">taṅkhaṇikāyapi</t>
@@ -239,10 +259,10 @@
     <t xml:space="preserve">SA 6 7</t>
   </si>
   <si>
-    <t xml:space="preserve">vatthuṃ desetabbaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vatthu desetabbaṃ</t>
+    <t xml:space="preserve">vatthuṁ desetabbaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vatthu desetabbaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">SA 7</t>
@@ -251,13 +271,13 @@
     <t xml:space="preserve">mahallakampana</t>
   </si>
   <si>
-    <t xml:space="preserve">mahallakaṃ pana</t>
+    <t xml:space="preserve">mahallakaṁ pana</t>
   </si>
   <si>
     <t xml:space="preserve">SA 9</t>
   </si>
   <si>
-    <t xml:space="preserve">kiñcidesaṃ</t>
+    <t xml:space="preserve">kiñcidesaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">kocideso</t>
@@ -305,10 +325,10 @@
     <t xml:space="preserve">vadatu</t>
   </si>
   <si>
-    <t xml:space="preserve">saṃvaḍḍhā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saṃvaddhā</t>
+    <t xml:space="preserve">saṁvaḍḍhā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṁvaddhā</t>
   </si>
   <si>
     <t xml:space="preserve">SA 13</t>
@@ -317,28 +337,28 @@
     <t xml:space="preserve">alante</t>
   </si>
   <si>
-    <t xml:space="preserve">alaṃ te</t>
+    <t xml:space="preserve">alaṁ te</t>
   </si>
   <si>
     <t xml:space="preserve">SA </t>
   </si>
   <si>
-    <t xml:space="preserve">yāvatihaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yāvatīhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tāvatihaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tāvatīhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttariṃ chārattaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttari chārattaṃ</t>
+    <t xml:space="preserve">yāvatihaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yāvatīhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tāvatihaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tāvatīhaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṁ chārattaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttari chārattaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">saṅghādisesuddeso niṭṭhito </t>
@@ -356,7 +376,7 @@
     <t xml:space="preserve">AN 1</t>
   </si>
   <si>
-    <t xml:space="preserve">alaṃkammaniye</t>
+    <t xml:space="preserve">alaṁkammaniye</t>
   </si>
   <si>
     <t xml:space="preserve">alaṅkammaniye</t>
@@ -365,10 +385,10 @@
     <t xml:space="preserve">AN 2</t>
   </si>
   <si>
-    <t xml:space="preserve">nālaṃkammaniyaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nālaṅkammaniyaṃ</t>
+    <t xml:space="preserve">nālaṁkammaniyaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nālaṅkammaniyaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">AN</t>
@@ -410,10 +430,10 @@
     <t xml:space="preserve">māsaparamantena</t>
   </si>
   <si>
-    <t xml:space="preserve">māsaparamaṃ tena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce uttariṃ nikkhipeyya </t>
+    <t xml:space="preserve">māsaparamaṁ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṁ nikkhipeyya </t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari nikkhipeyya </t>
@@ -437,16 +457,16 @@
     <t xml:space="preserve">abhihaṭṭhumpavāreyya</t>
   </si>
   <si>
-    <t xml:space="preserve">abhihaṭṭhuṃ pavāreyya</t>
+    <t xml:space="preserve">abhihaṭṭhuṁ pavāreyya</t>
   </si>
   <si>
     <t xml:space="preserve">santaruttaraparamantena</t>
   </si>
   <si>
-    <t xml:space="preserve">santaruttaraparamaṃ tena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce uttariṃ sādiyeyya</t>
+    <t xml:space="preserve">santaruttaraparamaṁ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṁ sādiyeyya</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari sādiyeyya </t>
@@ -455,10 +475,10 @@
     <t xml:space="preserve">NP 8 10</t>
   </si>
   <si>
-    <t xml:space="preserve">cīvaracetāpanaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cīvaracetāpannaṃ</t>
+    <t xml:space="preserve">cīvaracetāpanaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cīvaracetāpannaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">cīvaracetāpanena</t>
@@ -503,7 +523,10 @@
     <t xml:space="preserve">upasaṅkamatāyasmā</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ vāyamamāno</t>
+    <t xml:space="preserve">ce uttariṃ vāyamamāno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṁ vāyamamāno</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari vāyamamāno </t>
@@ -515,25 +538,25 @@
     <t xml:space="preserve">patigaṇhāma</t>
   </si>
   <si>
-    <t xml:space="preserve">dvittikkhattuṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dvattikkhattuṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no ce abhinipphādeyya tato ce uttariṃ</t>
+    <t xml:space="preserve">dvittikkhattuṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvattikkhattuṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no ce abhinipphādeyya tato ce uttariṁ</t>
   </si>
   <si>
     <t xml:space="preserve">tato ce uttari</t>
   </si>
   <si>
-    <t xml:space="preserve">tato ce uttariṃ</t>
+    <t xml:space="preserve">tato ce uttariṁ</t>
   </si>
   <si>
     <t xml:space="preserve">tantassa</t>
   </si>
   <si>
-    <t xml:space="preserve">taṃ tassa</t>
+    <t xml:space="preserve">taṁ tassa</t>
   </si>
   <si>
     <t xml:space="preserve">vinassīti</t>
@@ -554,7 +577,7 @@
     <t xml:space="preserve">navampana</t>
   </si>
   <si>
-    <t xml:space="preserve">navaṃ pana</t>
+    <t xml:space="preserve">navaṁ pana</t>
   </si>
   <si>
     <t xml:space="preserve">NP 14</t>
@@ -578,7 +601,7 @@
     <t xml:space="preserve">nisīdanasanthatampana </t>
   </si>
   <si>
-    <t xml:space="preserve">nisīdanasanthataṃ pana</t>
+    <t xml:space="preserve">nisīdanasanthataṁ pana</t>
   </si>
   <si>
     <t xml:space="preserve">NP 16</t>
@@ -596,7 +619,7 @@
     <t xml:space="preserve">haritabbāni</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ hareyya </t>
+    <t xml:space="preserve">ce uttariṁ hareyya </t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari hareyya</t>
@@ -623,7 +646,7 @@
     <t xml:space="preserve">ayante</t>
   </si>
   <si>
-    <t xml:space="preserve">ayaṃ te</t>
+    <t xml:space="preserve">ayaṁ te</t>
   </si>
   <si>
     <t xml:space="preserve">nissajjitabbo</t>
@@ -635,19 +658,19 @@
     <t xml:space="preserve">NP 23 PC 39</t>
   </si>
   <si>
-    <t xml:space="preserve">seyyathīdaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seyyathidaṃ</t>
+    <t xml:space="preserve">seyyathīdaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seyyathidaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">NP 23</t>
   </si>
   <si>
-    <t xml:space="preserve">madhu phāṇitaṃ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">madhuphāṇitaṃ</t>
+    <t xml:space="preserve">madhu phāṇitaṁ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhuphāṇitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">NP 24</t>
@@ -683,10 +706,10 @@
     <t xml:space="preserve">NP 28</t>
   </si>
   <si>
-    <t xml:space="preserve">kattikatemāsipuṇṇamaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kattikatemāsikapuṇṇamaṃ</t>
+    <t xml:space="preserve">kattikatemāsipuṇṇamaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattikatemāsikapuṇṇamaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttariṁ nikkhipeyya</t>
@@ -698,10 +721,10 @@
     <t xml:space="preserve">chārattaparamantena</t>
   </si>
   <si>
-    <t xml:space="preserve">chārattaparamaṃ tena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce uttariṃ vippavaseyya</t>
+    <t xml:space="preserve">chārattaparamaṁ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṁ vippavaseyya</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari vippavaseyya </t>
@@ -719,19 +742,19 @@
     <t xml:space="preserve">nissaggiyā pācittiyā dhammā niṭṭhitā</t>
   </si>
   <si>
-    <t xml:space="preserve">tiṃsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
+    <t xml:space="preserve">tiṁsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
   </si>
   <si>
     <t xml:space="preserve">PC 5</t>
   </si>
   <si>
-    <t xml:space="preserve">uttaridvirattatirattaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttariṃ dirattatirattaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttaridirattatirattaṃ </t>
+    <t xml:space="preserve">uttaridvirattatirattaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṁ dirattatirattaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridirattatirattaṁ </t>
   </si>
   <si>
     <t xml:space="preserve">PC 7</t>
@@ -740,16 +763,16 @@
     <t xml:space="preserve">uttarichappañcavācāhi</t>
   </si>
   <si>
-    <t xml:space="preserve">uttariṃ chappañcavācāhi </t>
+    <t xml:space="preserve">uttariṁ chappañcavācāhi </t>
   </si>
   <si>
     <t xml:space="preserve">PC 10</t>
   </si>
   <si>
-    <t xml:space="preserve">paṭhaviṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pathaviṃ</t>
+    <t xml:space="preserve">paṭhaviṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathaviṁ</t>
   </si>
   <si>
     <t xml:space="preserve">musāvādavaggo paṭhamo </t>
@@ -776,7 +799,7 @@
     <t xml:space="preserve">PC 14 15</t>
   </si>
   <si>
-    <t xml:space="preserve">anāpucchaṃ</t>
+    <t xml:space="preserve">anāpucchaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">anāpucchā</t>
@@ -785,10 +808,10 @@
     <t xml:space="preserve">PC 16</t>
   </si>
   <si>
-    <t xml:space="preserve">pubbūpagataṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pubbupagataṃ</t>
+    <t xml:space="preserve">pubbūpagataṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubbupagataṁ</t>
   </si>
   <si>
     <t xml:space="preserve">anūpakhajja</t>
@@ -821,7 +844,7 @@
     <t xml:space="preserve">dvatticchadanassa</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ appaharitepi </t>
+    <t xml:space="preserve">ce uttariṁ appaharitepi </t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari appaharitepi </t>
@@ -845,10 +868,10 @@
     <t xml:space="preserve">PC 23</t>
   </si>
   <si>
-    <t xml:space="preserve">bhikkhunūpassayaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhikkhunupassayaṃ</t>
+    <t xml:space="preserve">bhikkhunūpassayaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhunupassayaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 24</t>
@@ -872,31 +895,31 @@
     <t xml:space="preserve">abhiruheyya</t>
   </si>
   <si>
-    <t xml:space="preserve">uddhagāminiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uddhaṃgāminiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uddhaṅgāminiṃ</t>
+    <t xml:space="preserve">uddhagāminiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddhaṁgāminiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddhaṅgāminiṁ</t>
   </si>
   <si>
     <t xml:space="preserve">tiriyantaraṇāya</t>
   </si>
   <si>
-    <t xml:space="preserve">tiriyaṃtaraṇāya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiriyaṃ taraṇāya</t>
+    <t xml:space="preserve">tiriyaṁtaraṇāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiriyaṁ taraṇāya</t>
   </si>
   <si>
     <t xml:space="preserve">PC 29</t>
   </si>
   <si>
-    <t xml:space="preserve">bhikkhunīparipācitaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhikkhuniparipācitaṃ</t>
+    <t xml:space="preserve">bhikkhunīparipācitaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhuniparipācitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">gihisamārambhā</t>
@@ -917,7 +940,7 @@
     <t xml:space="preserve">PC 31</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ bhuñjeyya</t>
+    <t xml:space="preserve">ce uttariṁ bhuñjeyya</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari bhuñjeyya</t>
@@ -947,7 +970,7 @@
     <t xml:space="preserve">dvattipattapūrā</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ paṭiggaṇheyya</t>
+    <t xml:space="preserve">ce uttariṁ paṭiggaṇheyya</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari paṭiggaṇheyya</t>
@@ -986,7 +1009,7 @@
     <t xml:space="preserve">cātumāsappaccayapavāraṇā</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ sādiyeyya </t>
+    <t xml:space="preserve">ce uttariṁ sādiyeyya </t>
   </si>
   <si>
     <t xml:space="preserve">PC 48 56</t>
@@ -1001,16 +1024,16 @@
     <t xml:space="preserve">PC 49 70</t>
   </si>
   <si>
-    <t xml:space="preserve">dvirattatirattaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirattatirattaṃ</t>
+    <t xml:space="preserve">dvirattatirattaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirattatirattaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 49</t>
   </si>
   <si>
-    <t xml:space="preserve">ce uttariṃ vaseyya</t>
+    <t xml:space="preserve">ce uttariṁ vaseyya</t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari vaseyya</t>
@@ -1022,7 +1045,7 @@
     <t xml:space="preserve">dvirattatirattañce</t>
   </si>
   <si>
-    <t xml:space="preserve">dirattatirattaṃ ce</t>
+    <t xml:space="preserve">dirattatirattaṁ ce</t>
   </si>
   <si>
     <t xml:space="preserve">acelakavaggo pañcamo</t>
@@ -1049,10 +1072,10 @@
     <t xml:space="preserve">PC 57</t>
   </si>
   <si>
-    <t xml:space="preserve">orenaḍḍhamāsaṃ nhāyeyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orenaddhamāsaṃ nahāyeyya</t>
+    <t xml:space="preserve">orenaḍḍhamāsaṁ nhāyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orenaddhamāsaṁ nahāyeyya</t>
   </si>
   <si>
     <t xml:space="preserve">PC 58</t>
@@ -1061,10 +1084,10 @@
     <t xml:space="preserve">PC 59</t>
   </si>
   <si>
-    <t xml:space="preserve">apaccuddhārakaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appaccuddhāraṇaṃ</t>
+    <t xml:space="preserve">apaccuddhārakaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appaccuddhāraṇaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 60</t>
@@ -1079,10 +1102,10 @@
     <t xml:space="preserve">PC 63</t>
   </si>
   <si>
-    <t xml:space="preserve">nīhatādhikaraṇaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nihatādhikaraṇaṃ</t>
+    <t xml:space="preserve">nīhatādhikaraṇaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihatādhikaraṇaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 68 70</t>
@@ -1127,7 +1150,7 @@
     <t xml:space="preserve">samaṇuddesa antarāyikā dhammā antarāyikā vuttā </t>
   </si>
   <si>
-    <t xml:space="preserve">dvirattatirattaṃ </t>
+    <t xml:space="preserve">dvirattatirattaṁ </t>
   </si>
   <si>
     <t xml:space="preserve">carapi re</t>
@@ -1148,16 +1171,16 @@
     <t xml:space="preserve">PC 71</t>
   </si>
   <si>
-    <t xml:space="preserve">naññaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na aññaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">byattaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vyattaṃ</t>
+    <t xml:space="preserve">naññaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na aññaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byattaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyattaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 72 73</t>
@@ -1175,7 +1198,7 @@
     <t xml:space="preserve">kimpanimehi</t>
   </si>
   <si>
-    <t xml:space="preserve">kiṃ panimehi</t>
+    <t xml:space="preserve">kiṁ panimehi</t>
   </si>
   <si>
     <t xml:space="preserve">sikkhāpadavivaṇṇanake</t>
@@ -1187,10 +1210,10 @@
     <t xml:space="preserve">PC 73</t>
   </si>
   <si>
-    <t xml:space="preserve">anvaḍḍhamāsaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anvaddhamāsaṃ</t>
+    <t xml:space="preserve">anvaḍḍhamāsaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvaddhamāsaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">ājānāmi</t>
@@ -1205,22 +1228,22 @@
     <t xml:space="preserve">uttari cassa</t>
   </si>
   <si>
-    <t xml:space="preserve">uttariṃ cassa</t>
+    <t xml:space="preserve">uttariṁ cassa</t>
   </si>
   <si>
     <t xml:space="preserve">aṭṭhikatvā</t>
   </si>
   <si>
-    <t xml:space="preserve">aṭṭhiṃ katvā </t>
+    <t xml:space="preserve">aṭṭhiṁ katvā </t>
   </si>
   <si>
     <t xml:space="preserve">PC 79 81</t>
   </si>
   <si>
-    <t xml:space="preserve">khiyyanadhammaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khīyanadhammaṃ</t>
+    <t xml:space="preserve">khiyyanadhammaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khīyanadhammaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">PC 83</t>
@@ -1262,19 +1285,19 @@
     <t xml:space="preserve">nisīdanampana</t>
   </si>
   <si>
-    <t xml:space="preserve">nisīdanaṃ pana</t>
+    <t xml:space="preserve">nisīdanaṁ pana</t>
   </si>
   <si>
     <t xml:space="preserve">PC 90</t>
   </si>
   <si>
-    <t xml:space="preserve">kaṇḍupaṭicchādiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaṇḍuppaṭicchādiṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugatacīvarappamāṇaṃ</t>
+    <t xml:space="preserve">kaṇḍupaṭicchādiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaṇḍuppaṭicchādiṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugatacīvarappamāṇaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">sugatacīvarappamāṇanti</t>
@@ -1364,10 +1387,10 @@
     <t xml:space="preserve">SK 30</t>
   </si>
   <si>
-    <t xml:space="preserve">samatittikaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samatitthikaṃ</t>
+    <t xml:space="preserve">samatittikaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samatitthikaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">khambhakatavaggo tatiyo</t>
@@ -1385,10 +1408,10 @@
     <t xml:space="preserve">SK 39</t>
   </si>
   <si>
-    <t xml:space="preserve">kavaḷaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabaḷaṃ</t>
+    <t xml:space="preserve">kavaḷaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">SK 40</t>
@@ -1418,19 +1441,19 @@
     <t xml:space="preserve">SK 45</t>
   </si>
   <si>
-    <t xml:space="preserve">kavaḷāvacchedakaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabaḷāvacchedakaṃ</t>
+    <t xml:space="preserve">kavaḷāvacchedakaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷāvacchedakaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">SK 47</t>
   </si>
   <si>
-    <t xml:space="preserve">hatthaniddhūnakaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hatthaniddhunakaṃ</t>
+    <t xml:space="preserve">hatthaniddhūnakaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaniddhunakaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">SK 50</t>
@@ -1442,7 +1465,7 @@
     <t xml:space="preserve">SK 56</t>
   </si>
   <si>
-    <t xml:space="preserve">samatiṃsa bhojanapaṭisaṃyuttā</t>
+    <t xml:space="preserve">samatiṁsa bhojanapaṭisaṁyuttā</t>
   </si>
   <si>
     <t xml:space="preserve">SK 57 onwards</t>
@@ -1496,7 +1519,7 @@
     <t xml:space="preserve">SK 68</t>
   </si>
   <si>
-    <t xml:space="preserve">chamāyaṃ</t>
+    <t xml:space="preserve">chamāyaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">chamāya</t>
@@ -1505,7 +1528,7 @@
     <t xml:space="preserve">SK 72</t>
   </si>
   <si>
-    <t xml:space="preserve">soḷasa dhammadesanāpaṭisaṃyuttā</t>
+    <t xml:space="preserve">soḷasa dhammadesanāpaṭisaṁyuttā</t>
   </si>
   <si>
     <t xml:space="preserve">SK 75</t>
@@ -1535,13 +1558,13 @@
     <t xml:space="preserve">satta adhikaraṇasamathā</t>
   </si>
   <si>
-    <t xml:space="preserve">paṭiññātakaraṇaṃ</t>
+    <t xml:space="preserve">paṭiññātakaraṇaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">paṭiññāya kāretabbo</t>
   </si>
   <si>
-    <t xml:space="preserve">paṭiññāya kāretabbaṃ</t>
+    <t xml:space="preserve">paṭiññāya kāretabbaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">tassapāpiyasikā</t>
@@ -1568,13 +1591,13 @@
     <t xml:space="preserve">ettakantassa</t>
   </si>
   <si>
-    <t xml:space="preserve">ettakaṃ tassa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhikkhupāṭimokkhaṃ niṭṭhitaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vitthāruddeso pañcamo bhikkhupātimokkhaṃ niṭṭhitaṃ</t>
+    <t xml:space="preserve">ettakaṁ tassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhupāṭimokkhaṁ niṭṭhitaṁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitthāruddeso pañcamo bhikkhupātimokkhaṁ niṭṭhitaṁ</t>
   </si>
   <si>
     <t xml:space="preserve">Dvematika</t>
@@ -1600,6 +1623,63 @@
  bhikku </t>
   </si>
   <si>
+    <t xml:space="preserve">pātimokkhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anusāvitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmīti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mataṃ te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attupanāyikaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attūpanāyikaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pārājikaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaggāhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthagāhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṇiggāhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṇigāhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itthimatiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itthīmatiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vatthu desetabbaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vatthuṃ desetabbaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahallakaṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiñcidesaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">kiñci desaṃ</t>
   </si>
   <si>
@@ -1612,25 +1692,361 @@
     <t xml:space="preserve">mā āyasm</t>
   </si>
   <si>
+    <t xml:space="preserve">alaṃ te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yāvatīhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yāvatihaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tāvatīhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tāvatihaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttari chārattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ chārattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ nikkhipeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ sādiyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ hareyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ vippavaseyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pathaviṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭhaviṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anāpucchaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubbupagataṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubbūpagataṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ appaharitepi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhunupassayaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhunūpassayaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddhaṅgāminiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddhagāminiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhuniparipācitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhunīparipācitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ bhuñjeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ paṭiggaṇheyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ sādiyeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ vaseyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appaccuddhāraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apaccuddhārakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aṭṭhiṃ katvā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaṇḍuppaṭicchādiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaṇḍupaṭicchādiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugatacīvarappamāṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamāyaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bodhirasa</t>
   </si>
   <si>
+    <t xml:space="preserve">pāṭimokkhaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anussāvitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">nidānanuddeso niṭṭhito</t>
   </si>
   <si>
+    <t xml:space="preserve">ajānamevaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajānamevāhaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">pārājikuddeso niṭṭhito</t>
   </si>
   <si>
+    <t xml:space="preserve">methunūpasaṃhitāhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methunupasaṃhitāhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methunūpasaṃhitena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methunupasaṃhitena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taṃkhaṇikāyapi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṃvaḍḍhā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṃvaddhā</t>
+  </si>
+  <si>
     <t xml:space="preserve">saṅghādisesuddeso niṭṭhito</t>
   </si>
   <si>
+    <t xml:space="preserve">alaṃkammaniye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nālaṃkammaniyaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nālaṅkammaniyaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">does not have</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve">māsaparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhihaṭṭhuṃ pavāreyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santaruttaraparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cīvaracetāpanaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cīvaracetāpannaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ vāyamamāno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvittikkhattuṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvattikkhattuṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no ce abhinipphādeyya tato ce uttariṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tato ce uttariṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taṃ tassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navaṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanasanthataṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayaṃ te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seyyathīdaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seyyathidaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhu phāṇitaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">madhuphāṇitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattikatemāsipuṇṇamaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattikatemāsikapuṇṇamaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chārattaparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiṃsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridvirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ dirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridirattatirattaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ chappañcavācāhi </t>
+  </si>
+  <si>
     <t xml:space="preserve">vā abhinisīdeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddhaṃgāminiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiriyaṃtaraṇāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiriyaṃ taraṇāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirattatirattaṃ ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orenaḍḍhamāsaṃ nhāyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orenaddhamāsaṃ nahāyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nīhatādhikaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihatādhikaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvirattatirattaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">naññaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na aññaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiṃ panimehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvaḍḍhamāsaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvaddhamāsaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ cassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiyyanadhammaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khīyanadhammaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanaṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samatittikaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samatitthikaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavaḷaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavaḷāvacchedakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷāvacchedakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaniddhūnakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaniddhunakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samatiṃsa bhojanapaṭisaṃyuttā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soḷasa dhammadesanāpaṭisaṃyuttā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiññātakaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiññāya kāretabbaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ettakaṃ tassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhupāṭimokkhaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitthāruddeso pañcamo bhikkhupātimokkhaṃ niṭṭhitaṃ</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +2056,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1661,6 +2077,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1705,7 +2126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1730,6 +2151,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,12 +2179,12 @@
   </sheetPr>
   <dimension ref="A1:AMJ203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+      <selection pane="bottomRight" activeCell="F106" activeCellId="0" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1976,7 +2405,7 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1987,7 +2416,7 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2063,7 +2492,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2088,7 +2517,7 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2099,7 +2528,7 @@
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2116,14 +2545,14 @@
       <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2136,478 +2565,478 @@
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
+      <c r="F22" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
+      <c r="E25" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -2671,14 +3100,14 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" s="5"/>
       <c r="F54" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2742,14 +3171,14 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="5"/>
       <c r="F55" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2813,17 +3242,17 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2887,19 +3316,19 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2963,17 +3392,19 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="C58" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3037,13 +3468,13 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3107,22 +3538,22 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3186,16 +3617,16 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3259,22 +3690,22 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3338,22 +3769,22 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3417,13 +3848,13 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3487,22 +3918,22 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3566,50 +3997,50 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3673,19 +4104,19 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3749,22 +4180,22 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3828,55 +4259,55 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3940,57 +4371,57 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -4054,18 +4485,18 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -4129,16 +4560,16 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4202,19 +4633,19 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4278,16 +4709,16 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4351,22 +4782,22 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4430,35 +4861,35 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4522,23 +4953,23 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -4546,236 +4977,236 @@
     </row>
     <row r="88" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -4783,1086 +5214,1086 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D121" s="1"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D139" s="1"/>
       <c r="F139" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D140" s="1"/>
       <c r="F140" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D156" s="1"/>
       <c r="F156" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D157" s="1"/>
       <c r="F157" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D165" s="1"/>
       <c r="F165" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D170" s="1"/>
       <c r="F170" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -5879,21 +6310,21 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>14</v>
@@ -5905,178 +6336,178 @@
         <v>14</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
@@ -6093,115 +6524,115 @@
     </row>
     <row r="186" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D187" s="1"/>
       <c r="F187" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D192" s="1"/>
       <c r="F192" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>14</v>
@@ -6218,176 +6649,176 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D195" s="1"/>
       <c r="F195" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D198" s="1"/>
       <c r="F198" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="35.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="35.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6408,11 +6839,11 @@
   </sheetPr>
   <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.67"/>
@@ -6423,33 +6854,33 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -6458,10 +6889,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6492,7 +6923,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="27.79"/>
@@ -6511,10 +6942,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,10 +6964,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,10 +6986,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>528</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,7 +6997,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>20</v>
@@ -6599,7 +7030,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>531</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -6610,10 +7041,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +7074,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>48</v>
@@ -6665,10 +7096,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>535</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,802 +7107,802 @@
         <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>537</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>541</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>552</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>103</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>557</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>190</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>241</v>
+        <v>560</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>240</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>563</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>253</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>265</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>274</v>
+        <v>566</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>273</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>284</v>
+        <v>568</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>282</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>289</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>297</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>307</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>320</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>328</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>346</v>
+        <v>576</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>345</v>
+        <v>577</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>376</v>
+        <v>578</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>377</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>395</v>
+        <v>580</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>414</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -7529,7 +7960,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,16 +7968,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>586</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,13 +7996,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>587</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,13 +8029,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>528</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
@@ -7674,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>530</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
@@ -7718,7 +8149,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,10 +8157,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>533</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7770,10 +8201,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>590</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,10 +8229,10 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>48</v>
@@ -7826,10 +8257,10 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>536</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,10 +8268,10 @@
         <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,13 +8282,13 @@
         <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>593</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>594</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7868,459 +8299,459 @@
         <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>595</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>596</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>540</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>67</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>597</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>542</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>598</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>599</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>599</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>549</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>551</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>553</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>555</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>601</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>602</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>533</v>
+        <v>605</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>606</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>606</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>128</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>556</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>608</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>139</v>
+        <v>608</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>140</v>
+        <v>557</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>609</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>144</v>
+        <v>610</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>610</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -8384,14 +8815,14 @@
     </row>
     <row r="54" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54" s="5"/>
       <c r="F54" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -8455,14 +8886,14 @@
     </row>
     <row r="55" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D55" s="5"/>
       <c r="F55" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -8526,17 +8957,17 @@
     </row>
     <row r="56" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -8600,17 +9031,17 @@
     </row>
     <row r="57" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -8674,15 +9105,15 @@
     </row>
     <row r="58" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="4" t="s">
-        <v>159</v>
+        <v>611</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -8746,14 +9177,14 @@
     </row>
     <row r="59" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D59" s="5"/>
       <c r="F59" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -8817,19 +9248,19 @@
     </row>
     <row r="60" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>612</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -8893,17 +9324,17 @@
     </row>
     <row r="61" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>614</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>167</v>
+        <v>615</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -8967,19 +9398,19 @@
     </row>
     <row r="62" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>616</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>169</v>
+        <v>616</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>169</v>
+        <v>616</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -9043,19 +9474,19 @@
     </row>
     <row r="63" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -9119,17 +9550,17 @@
     </row>
     <row r="64" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -9192,19 +9623,19 @@
     </row>
     <row r="65" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -9268,41 +9699,41 @@
     </row>
     <row r="66" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>184</v>
+        <v>618</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>184</v>
+        <v>618</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>184</v>
+        <v>618</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -9366,16 +9797,16 @@
     </row>
     <row r="69" s="4" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -9439,20 +9870,20 @@
     </row>
     <row r="70" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -9516,55 +9947,55 @@
     </row>
     <row r="71" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>190</v>
+        <v>558</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="4" t="s">
-        <v>199</v>
+        <v>619</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>199</v>
+        <v>619</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -9628,51 +10059,51 @@
     </row>
     <row r="75" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>203</v>
+        <v>620</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>204</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>622</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>207</v>
+        <v>623</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -9736,18 +10167,18 @@
     </row>
     <row r="79" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -9811,17 +10242,17 @@
     </row>
     <row r="80" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -9885,17 +10316,17 @@
     </row>
     <row r="81" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -9959,13 +10390,13 @@
     </row>
     <row r="82" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D82" s="5"/>
       <c r="G82" s="1"/>
@@ -10030,19 +10461,19 @@
     </row>
     <row r="83" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>219</v>
+        <v>624</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>220</v>
+        <v>625</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -10106,32 +10537,32 @@
     </row>
     <row r="84" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" s="4" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>224</v>
+        <v>626</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>224</v>
+        <v>626</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>224</v>
+        <v>626</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -10195,1245 +10626,1245 @@
     </row>
     <row r="86" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>225</v>
+        <v>559</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="4"/>
       <c r="G87" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="1" t="s">
-        <v>231</v>
+        <v>627</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>231</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>233</v>
+        <v>628</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>234</v>
+        <v>629</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="4" t="s">
-        <v>235</v>
+        <v>630</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>234</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>238</v>
+        <v>631</v>
       </c>
       <c r="D90" s="5"/>
       <c r="F90" s="1" t="s">
-        <v>238</v>
+        <v>631</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>240</v>
+        <v>561</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>241</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>253</v>
+        <v>564</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>254</v>
+        <v>563</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>254</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>534</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>75</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>265</v>
+        <v>565</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
       <c r="E102" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
       <c r="G103" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>273</v>
+        <v>567</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>274</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="5"/>
       <c r="E106" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>282</v>
+        <v>569</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>283</v>
+        <v>633</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>284</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>286</v>
+        <v>634</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>287</v>
+        <v>635</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>287</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>289</v>
+        <v>571</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>290</v>
+        <v>570</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>297</v>
+        <v>572</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>137</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>307</v>
+        <v>573</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>320</v>
+        <v>574</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>325</v>
+        <v>636</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>328</v>
+        <v>575</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>332</v>
+        <v>638</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>332</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>341</v>
+        <v>639</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>342</v>
+        <v>640</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="1" t="s">
-        <v>342</v>
+        <v>640</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>342</v>
+        <v>640</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>345</v>
+        <v>577</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>346</v>
+        <v>576</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>641</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>352</v>
+        <v>642</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>352</v>
+        <v>642</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>352</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>367</v>
+        <v>643</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>326</v>
+        <v>637</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>374</v>
+        <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>375</v>
+        <v>645</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>375</v>
+        <v>645</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>375</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>376</v>
+        <v>578</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>377</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>383</v>
+        <v>646</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>383</v>
+        <v>646</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>383</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>387</v>
+        <v>647</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>388</v>
+        <v>648</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>388</v>
+        <v>648</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>163</v>
+        <v>612</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>164</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>393</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>395</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>650</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>398</v>
+        <v>651</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>398</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>176</v>
+        <v>617</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>412</v>
+        <v>652</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>412</v>
+        <v>652</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>412</v>
+        <v>652</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>414</v>
+        <v>582</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -11448,19 +11879,19 @@
     </row>
     <row r="175" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>446</v>
+        <v>653</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>447</v>
+        <v>654</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>14</v>
@@ -11470,161 +11901,161 @@
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>453</v>
+        <v>655</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>454</v>
+        <v>656</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>454</v>
+        <v>656</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>454</v>
+        <v>656</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>464</v>
+        <v>657</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>465</v>
+        <v>658</v>
       </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>465</v>
+        <v>658</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>465</v>
+        <v>658</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>467</v>
+        <v>659</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>468</v>
+        <v>660</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>468</v>
+        <v>660</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>468</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>472</v>
+        <v>661</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
@@ -11639,103 +12070,103 @@
     </row>
     <row r="186" customFormat="false" ht="35.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>493</v>
+        <v>662</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>14</v>
@@ -11750,160 +12181,160 @@
     </row>
     <row r="194" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>503</v>
+        <v>663</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
-        <v>505</v>
+        <v>664</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>505</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>514</v>
+        <v>665</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>514</v>
+        <v>665</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>514</v>
+        <v>665</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>387</v>
+        <v>647</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>388</v>
+        <v>648</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>388</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>515</v>
+        <v>666</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>516</v>
+        <v>667</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>516</v>
+        <v>667</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>516</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/source/differences.xlsx
+++ b/source/differences.xlsx
@@ -221,24 +221,8 @@
     <t xml:space="preserve">methunupasaṁhitena</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">methunūpasaṁh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">itena
+    <t xml:space="preserve">methunūpasaṁhitena
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">SA 5</t>
@@ -2056,7 +2040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2078,18 +2062,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2126,7 +2111,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2151,12 +2136,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2180,11 +2161,11 @@
   <dimension ref="A1:AMJ203"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
-      <selection pane="bottomRight" activeCell="F106" activeCellId="0" sqref="F106"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2405,7 +2386,7 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2416,7 +2397,7 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2492,7 +2473,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2517,7 +2498,7 @@
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2528,7 +2509,7 @@
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2545,7 +2526,7 @@
       <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2565,10 +2546,10 @@
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2612,7 +2593,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2812,7 +2793,7 @@
       <c r="E39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2869,6 +2850,7 @@
       <c r="B43" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="D43" s="6"/>
       <c r="E43" s="1" t="s">
         <v>123</v>
       </c>
@@ -3394,7 +3376,7 @@
       <c r="A58" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="4" t="s">
         <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -5262,7 +5244,7 @@
       <c r="D107" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6843,7 +6825,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.67"/>
@@ -6923,7 +6905,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="27.79"/>
